--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,14 @@
   </si>
   <si>
     <t>2. 退出账号后应结束所有Acitivity跳转到LoginActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 班课列表中有通知的班课应该红点标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 班课列表已删除班课应不予显示，已结束班课区分显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +396,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -414,6 +422,9 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -422,6 +433,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +62,14 @@
   </si>
   <si>
     <t>2. 班课列表已删除班课应不予显示，已结束班课区分显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 权限申请以后不再提示之后，便不能再显示或同意也会提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. ImageView 从相册获取照片会旋转90的整数倍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,7 +404,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -444,11 +452,17 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
       </c>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +70,22 @@
   </si>
   <si>
     <t>4. ImageView 从相册获取照片会旋转90的整数倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.班课结束提示对话框添加确认按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.结束删除班课按钮空白处也应该响应事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.找回密码填写新密码和确认密码时应该密文显示密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -436,6 +452,9 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
@@ -455,6 +474,9 @@
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
@@ -463,8 +485,16 @@
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,10 @@
   </si>
   <si>
     <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.结束班课后再次回到班课列表应该刷新班课列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -497,6 +501,11 @@
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>6.结束班课后再次回到班课列表应该刷新班课列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.服务器响应之前按钮点击两次会出发两次点击事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.连接服务器失败后处理方案以及某些页面允许下拉刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.切换fragment按钮点击等一些情况下会全灰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -497,13 +509,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,10 @@
   </si>
   <si>
     <t>7.切换fragment按钮点击等一些情况下会全灰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.已结束课程应控制发布作业等操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -529,6 +533,11 @@
         <v>20</v>
       </c>
     </row>
+    <row r="9" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,10 @@
   </si>
   <si>
     <t>8.已结束课程应控制发布作业等操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.发布作业时时间不能动态变化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -538,6 +542,11 @@
         <v>21</v>
       </c>
     </row>
+    <row r="10" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,13 +110,17 @@
   </si>
   <si>
     <t>9.发布作业时时间不能动态变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.个性签名重心应该在右边</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -440,11 +444,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -536,6 +540,9 @@
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>7.个性签名重心应该在右边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.通知ListView应desc显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.手机按键返回通知不能取消红点显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,7 +460,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -527,6 +539,9 @@
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -535,10 +550,16 @@
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,7 +125,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已解决</t>
+    <t>10.加入班课未处理以前加入过班课现在退出了情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -559,7 +559,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
@@ -573,6 +573,11 @@
     <row r="10" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>10.加入班课未处理以前加入过班课现在退出了情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.退出班课崩溃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.老师的unread_information_num应该是一直是0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +472,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -503,6 +515,9 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
@@ -564,10 +579,16 @@
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +138,10 @@
   </si>
   <si>
     <t>7.老师的unread_information_num应该是一直是0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.取消结束班课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +476,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -595,6 +599,9 @@
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,14 @@
   </si>
   <si>
     <t>9.取消结束班课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.头像为圆形，剪切方式为方形</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -490,7 +498,7 @@
     <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,10 +509,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -515,7 +526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -528,8 +539,11 @@
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -540,7 +554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -551,7 +565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -562,7 +576,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -573,7 +587,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -587,7 +601,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -595,7 +609,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -603,9 +617,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,18 @@
   </si>
   <si>
     <t>10.头像为圆形，剪切方式为方形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.学号为英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.PrepareClassActivity没写好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -597,6 +609,9 @@
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
@@ -623,6 +638,14 @@
       </c>
       <c r="C11" s="2" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -496,7 +496,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +162,10 @@
   </si>
   <si>
     <t>11.PrepareClassActivity没写好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +500,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -559,6 +563,9 @@
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
@@ -619,6 +626,9 @@
     <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>28</v>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,6 +166,10 @@
   </si>
   <si>
     <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟器有问题，小米6没问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +504,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -577,6 +581,9 @@
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.发布作业时时间不能动态变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7.个性签名重心应该在右边</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,6 +166,38 @@
   </si>
   <si>
     <t>模拟器有问题，小米6没问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.登录之后提示图片加载失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代延绪代码已修改，进行测试中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class列表界面已可以更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.发布作业时间不能动态变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.作业相关图片应可以上传多张，并且可以取消上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.修改个人信息界面数据应对齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.修改个人信息学号设置为必填项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.无法修改个人信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -534,7 +562,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -551,7 +579,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
@@ -560,7 +588,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -568,7 +596,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -582,7 +610,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -595,22 +623,28 @@
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -621,13 +655,13 @@
         <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -635,34 +669,57 @@
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,10 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11.学号为英文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11.PrepareClassActivity没写好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,10 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>class列表界面已可以更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9.发布作业时间不能动态变化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,6 +190,30 @@
   </si>
   <si>
     <t>15.无法修改个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class列表界面已可以更新，模拟器运行似乎有缓存，实机运行流量消耗巨大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决，跳转应该finish(),而不是再打开新的activity,而且应该刷新班课列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已删除结束班课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.已删除结束班课功能，删除班课提示班课未结束不能删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.学号为英文改为只能输入数字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -596,10 +612,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>5</v>
@@ -610,10 +629,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
@@ -624,13 +646,16 @@
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -638,13 +663,19 @@
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -663,21 +694,27 @@
       <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="F8" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
@@ -693,33 +730,41 @@
     </row>
     <row r="12" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,14 @@
   </si>
   <si>
     <t>11.学号为英文改为只能输入数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.修改ListView刷新方式为notifyDataChange()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -716,6 +724,9 @@
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
@@ -748,6 +759,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>40</v>
       </c>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -555,7 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -735,6 +735,9 @@
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>31</v>
       </c>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,6 +222,34 @@
   </si>
   <si>
     <t>13.修改ListView刷新方式为notifyDataChange()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.学号不能为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.图片缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.发布新通知后设置班课内学生if_new_thing设置为是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.所有班课内学生的操作应该是基于学生在班课内进行操作的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.插件拍照权限获取有bug</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -719,6 +747,9 @@
       <c r="D9" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -746,6 +777,9 @@
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>48</v>
       </c>
@@ -770,18 +804,38 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C16" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="3:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="C17" s="2" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +250,14 @@
   </si>
   <si>
     <t>16.插件拍照权限获取有bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.topbar应为班课名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -794,6 +802,9 @@
       <c r="C13" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -831,6 +842,9 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +258,10 @@
   </si>
   <si>
     <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.未对if_new_class_thing设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -852,6 +856,11 @@
         <v>54</v>
       </c>
     </row>
+    <row r="19" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,6 +262,18 @@
   </si>
   <si>
     <t>18.未对if_new_class_thing设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业图片已设置缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解決</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -803,6 +815,9 @@
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="C13" s="2" t="s">
         <v>36</v>
       </c>
@@ -822,6 +837,9 @@
       <c r="A15" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="B15" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>41</v>
       </c>
@@ -841,6 +859,9 @@
       <c r="A17" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="B17" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="C17" s="2" t="s">
         <v>47</v>
       </c>
@@ -848,6 +869,9 @@
     <row r="18" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>58</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>51</v>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模拟器有问题，小米6没问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12.登录之后提示图片加载失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,10 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>class列表界面已可以更新，模拟器运行似乎有缓存，实机运行流量消耗巨大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,11 +261,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>作业图片已设置缓存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已解決</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.用户界面刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.更改图片存放位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.更改图片获取方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.更改文件存放位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.上传头像时要压缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finish()后不需要再跳转登录界面，这样就两个登录界面了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -649,6 +665,9 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -678,7 +697,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>5</v>
@@ -689,16 +708,19 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -706,7 +728,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -715,7 +737,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -723,19 +745,19 @@
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -755,7 +777,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -769,21 +791,27 @@
         <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -802,87 +830,111 @@
         <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,10 +237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15.所有班课内学生的操作应该是基于学生在班课内进行操作的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>16.插件拍照权限获取有bug</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,6 +286,18 @@
   </si>
   <si>
     <t>finish()后不需要再跳转登录界面，这样就两个登录界面了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.所有对class_user表及和class_user表关联的非指定一条记录的增删改查都应该加 where if_in_class = '是’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.信息输入界面应设置键盘不自动弹出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -666,7 +674,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -720,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -797,7 +805,7 @@
         <v>53</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -811,7 +819,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -844,13 +852,13 @@
         <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -858,7 +866,7 @@
         <v>48</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>39</v>
@@ -880,7 +888,10 @@
     </row>
     <row r="16" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>41</v>
@@ -888,10 +899,10 @@
     </row>
     <row r="17" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>45</v>
@@ -899,10 +910,10 @@
     </row>
     <row r="18" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>49</v>
@@ -913,28 +924,31 @@
     </row>
     <row r="19" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,6 +298,22 @@
   </si>
   <si>
     <t>19.信息输入界面应设置键盘不自动弹出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.注册user表没有写入create_date_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.删除班课不应该是跳转，应该是返回班课列表并刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.注册user表没有写入modify_date_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -821,6 +837,9 @@
       <c r="E10" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -832,6 +851,12 @@
       <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="E11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -846,6 +871,9 @@
       <c r="D12" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="E12" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -949,6 +977,11 @@
     <row r="22" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,6 +314,22 @@
   </si>
   <si>
     <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.加载中Activity跳转动画太乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.删除班课下面少了一条横线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.fastJson应该写入pom.xml从maven库导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.编辑班课时若不修改头像，编辑完班课会用默认头像覆盖掉班课头像</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -888,6 +904,9 @@
       <c r="D13" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="E13" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -970,6 +989,9 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="C21" s="2" t="s">
         <v>63</v>
       </c>
@@ -982,6 +1004,16 @@
     <row r="23" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,6 +330,66 @@
   </si>
   <si>
     <t>24.编辑班课时若不修改头像，编辑完班课会用默认头像覆盖掉班课头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.应用自动更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.所有成员都签到后应该有提示并询问是否结束签到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26.签到结果界面改为已签到和未签到下面都应该有一条横线，已签到和未签到应该连起来，已签到和未签到点击有收起/展开ListView的效果，界面上加个箭头显示收起/展开状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27.移出成员不要删除记录if_in_class改为否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28.教师端把ListView上面无用的蓝条去掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29.PushUtil把没用的代码删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.为防止程序直接被后台杀死后逻辑出现问题，老师进入签到页面时检测是否正在签到，是则直接进入签到页面，显示签到情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.班课列表逆序显示班级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.资源名如果用上传的原名，上传同名的文件会覆盖掉之前的文件，生成随机名，原名保存在数据库，app上显示原名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.删除图标界面优化下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.资源ListView上下都要横线隔开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.点击后不应该立马下载，应该询问用户后再下载，如果下载好了的话直接加载就好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.不需要每次都下载，先检测本地有没有，有的话直接本地加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.默认资源图标换一个带色彩的，ppt、word、excel用特殊图标不用默认图标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -661,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -918,6 +978,9 @@
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="E14" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -932,6 +995,9 @@
       <c r="D15" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="E15" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -943,8 +1009,11 @@
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>54</v>
       </c>
@@ -954,8 +1023,11 @@
       <c r="C17" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
@@ -968,8 +1040,11 @@
       <c r="D18" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
@@ -979,41 +1054,83 @@
       <c r="C19" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="B21" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="C21" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="C22" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F35ECE8C-324E-44D1-A4F4-E4EC9B430B61}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="99">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,10 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>21.应用自动更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -390,13 +387,41 @@
   </si>
   <si>
     <t>18.默认资源图标换一个带色彩的，ppt、word、excel用特殊图标不用默认图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.通知0人已读时显示 人已读改为0人已读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不改了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.应用推送更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.将是否需要登录从LoginActivity迁移到InitialActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.OpenFileUtil是在App层调用的，所以应该在App层，从Api层迁移到App层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -720,11 +745,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -802,6 +827,9 @@
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -833,6 +861,9 @@
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
@@ -910,6 +941,9 @@
       <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>64</v>
       </c>
@@ -927,6 +961,9 @@
       <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>70</v>
       </c>
@@ -950,6 +987,9 @@
       <c r="E12" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="F12" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -967,6 +1007,9 @@
       <c r="E13" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="F13" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -978,8 +1021,11 @@
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="E14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -996,7 +1042,7 @@
         <v>52</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1009,8 +1055,11 @@
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="E16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1023,8 +1072,11 @@
       <c r="C17" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="E17" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1041,7 +1093,7 @@
         <v>52</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1054,8 +1106,11 @@
       <c r="C19" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="E19" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1066,7 +1121,7 @@
         <v>62</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1074,63 +1129,84 @@
         <v>74</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="E21" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>65</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F35ECE8C-324E-44D1-A4F4-E4EC9B430B61}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0E86F629-D871-4E91-A8B0-34FBF1733ECB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="102">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,6 +415,18 @@
   </si>
   <si>
     <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.UploadController和DownloadController合并到MetarialController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31.学生签到情况界面已签到会出现两种颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.像学生签到情况界面之类无点击事件的listView设置为点击后无点击效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -746,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1167,6 +1179,9 @@
       <c r="D24" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="E24" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
@@ -1207,6 +1222,16 @@
     <row r="31" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0E86F629-D871-4E91-A8B0-34FBF1733ECB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E2BADE79-DD06-438E-964C-E0FAD7FBAEAF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="108">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,10 +286,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>finish()后不需要再跳转登录界面，这样就两个登录界面了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>15.所有对class_user表及和class_user表关联的非指定一条记录的增删改查都应该加 where if_in_class = '是’</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -427,6 +423,34 @@
   </si>
   <si>
     <t>32.像学生签到情况界面之类无点击事件的listView设置为点击后无点击效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33.无签到学生点击签到时Dialog提示改为Toast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面优化，箭头方向改下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.网站端登录成功无需Dialog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.资源界面上传地址位置界面优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经下载的话直接打开，不再提示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -840,7 +864,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -860,7 +884,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -874,7 +898,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
@@ -954,13 +978,13 @@
         <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -974,13 +998,13 @@
         <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -997,10 +1021,10 @@
         <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1017,10 +1041,10 @@
         <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1034,10 +1058,13 @@
         <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1054,27 +1081,33 @@
         <v>52</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>54</v>
       </c>
@@ -1085,13 +1118,16 @@
         <v>45</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
@@ -1105,10 +1141,13 @@
         <v>52</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
@@ -1119,119 +1158,175 @@
         <v>61</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="E20" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="E21" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="E22" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="F23" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F24" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="3:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="2" t="s">
-        <v>101</v>
+      <c r="D33" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E2BADE79-DD06-438E-964C-E0FAD7FBAEAF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E6FD4D7F-FDF6-42E1-9ABB-6FBC48E49909}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="111">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -438,10 +438,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>界面优化，箭头方向改下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>23.网站端登录成功无需Dialog</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -451,6 +447,22 @@
   </si>
   <si>
     <t>已经下载的话直接打开，不再提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.登录界面显示密码和隐藏密码的小眼睛对调一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -784,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1144,7 +1156,7 @@
         <v>88</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1217,6 +1229,9 @@
       <c r="E22" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="F22" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
@@ -1254,7 +1269,7 @@
         <v>97</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1265,7 +1280,10 @@
         <v>102</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1273,7 +1291,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1327,6 +1348,9 @@
     <row r="34" spans="3:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
         <v>103</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E6FD4D7F-FDF6-42E1-9ABB-6FBC48E49909}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{72C14B14-F20E-4E9E-AAE4-89B53FDDA84F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="110">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -443,10 +443,6 @@
   </si>
   <si>
     <t>24.资源界面上传地址位置界面优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经下载的话直接打开，不再提示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -796,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1156,7 +1152,7 @@
         <v>88</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1175,6 +1171,9 @@
       <c r="E19" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="F19" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -1230,7 +1229,7 @@
         <v>95</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1271,6 +1270,9 @@
       <c r="E25" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="F25" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
@@ -1283,7 +1285,7 @@
         <v>105</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1291,10 +1293,13 @@
         <v>79</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1350,7 +1355,7 @@
         <v>103</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{72C14B14-F20E-4E9E-AAE4-89B53FDDA84F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FA609EC7-0916-45CD-96A8-B9AB59F34ACB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="109">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,10 +191,6 @@
   </si>
   <si>
     <t>已解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决，跳转应该finish(),而不是再打开新的activity,而且应该刷新班课列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -793,7 +789,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -835,7 +831,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -866,13 +862,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -906,7 +902,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
@@ -926,7 +922,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -966,13 +962,13 @@
         <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -980,19 +976,19 @@
         <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1006,13 +1002,13 @@
         <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1020,19 +1016,19 @@
         <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1040,44 +1036,44 @@
         <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>16</v>
@@ -1086,70 +1082,70 @@
         <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>16</v>
@@ -1157,19 +1153,19 @@
     </row>
     <row r="19" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>16</v>
@@ -1177,98 +1173,98 @@
     </row>
     <row r="20" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>16</v>
@@ -1276,27 +1272,27 @@
     </row>
     <row r="26" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>16</v>
@@ -1304,58 +1300,58 @@
     </row>
     <row r="28" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="3:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="3:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FA609EC7-0916-45CD-96A8-B9AB59F34ACB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{552CBCAF-F5A6-4A10-BEAD-951C166B7189}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -789,7 +789,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/基于Android的智慧移动课堂学习系统/bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/bug记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{552CBCAF-F5A6-4A10-BEAD-951C166B7189}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{50876FDA-785F-4A59-9DB9-6571414907F2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="110">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -451,6 +451,10 @@
   </si>
   <si>
     <t>25.登录界面显示密码和隐藏密码的小眼睛对调一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -788,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -844,6 +848,9 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1174,6 +1181,9 @@
     <row r="20" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>67</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>61</v>
